--- a/Output_testing/R1_201907/Country/HKD/MN/SAUDI ARABIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SAUDI ARABIA_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4459.347252</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>53.27297591379014</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>4715.546528</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>58.8437658388684</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4495.630256</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>57.12004211126052</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2531.237478</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>32.74642707261107</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-0.3919853012763541</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>810.286866</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.679980108370916</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>306.235895</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.821417769888727</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>72.22694199999999</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.917692455490844</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2126.766829</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>27.51382099530402</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>161.25891</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.926457291358312</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>199.059201</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.483994790882538</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>599.666048</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.619165270261758</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1145.920202</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>14.82468265106209</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>210.5318332835332</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>890.39795</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>10.63701610650843</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>949.291925</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>11.84590405708931</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>889.175401</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>11.29757863908659</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>696.180031</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>9.006428204659196</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>31.66667496935673</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>280.957352</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.356418193085417</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>273.07581</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.407623893537228</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>292.293411</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.71378672053407</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>232.678323</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.010141798910636</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>57.25908908901771</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>261.539061</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.12444026217501</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>223.876707</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.793684347140207</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>144.400706</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.834709248298944</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>96.195757</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.244477204795525</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>21.40538790839617</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>159.489707</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.905321752123655</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>142.014604</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.772153885844475</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>111.170106</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.412491858679513</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>69.999773</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9055817486769329</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-11.53078836497181</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>30.76552</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3675360346068939</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>24.971079</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.3116059435942192</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>39.759524</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.5051718126001672</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>69.615387</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9006089761788429</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>222.532266599061</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>43.51166</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5198060353136693</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>89.48096</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.116603690794322</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>54.850425</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.6969119806147459</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>67.574123</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8742012987906423</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>115.9846263615638</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>97.613731</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.166128952636719</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>101.091649</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.261489688777189</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>102.377707</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.300778445311338</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>53.514826</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.6923172409319355</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>12.45114195803512</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1175.581279</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.04391935003083</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>989.027882</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.34175609358338</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1068.94482</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.58167145786151</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>640.129969</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.281312808079118</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>6.371419165973746</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,529 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>19.521252</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>69.33315091928371</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>53.996759</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>86.12881142268023</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>17.128914</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>55.38141331075948</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>16.023645</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>85.93585923711893</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>38.28533944435058</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>4.912418</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>17.44731426921827</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>7.357762</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.73617282827961</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>6.696128</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.65000258333653</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.9551809999999999</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>5.122698359953088</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-77.5732727824698</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.385067</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.470983841794737</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.88422</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.410396087590411</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.016253</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.285761573751801</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.508391</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.72653428189517</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>75.3193323677495</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.985654</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.18682851437069</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.472142628369802</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.167031168230043</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.284346949155778</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-8.259622051708348</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.2541010663337184</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.237988610135808</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.8843352615995205</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.3725131732980257</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>147.3611111111111</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.1374108160386003</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.3269968355767752</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.20781879188152</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.05308086336300208</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.1913608958636029</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.17119441692</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.265445</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>4.494449903369567</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.534127982048147</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>4.408392</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>14.25326669208834</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.1419067156950973</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-99.39744069425034</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1824,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>4459.347252</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>53.45276884052043</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>4715.546528</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>59.30774564584439</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4495.630256</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>57.34539455556865</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2531.237478</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>32.82560984871238</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-0.3919853012763541</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>810.286866</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.712649429438908</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>306.235895</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>3.851549435562585</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>72.22694199999999</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>0.9213129751950341</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2126.766829</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>27.5803510238391</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>141.737658</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.69896396062738</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>145.062442</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.824460083643788</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>582.537134</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.430731597180568</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1129.896557</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>14.65273166656448</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>216.1158034280806</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>890.167541</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>10.67015352461444</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>949.176641</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>11.93785841432057</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>889.175401</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>11.34215033173559</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>696.180031</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>9.028206274871886</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>31.66667496935673</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>280.957352</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.36774589235347</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>273.07581</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.434492817608125</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>292.293411</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.728438511467298</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>232.678323</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.0174204978529</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>57.25908908901771</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>261.539061</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.134985050587797</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>223.876707</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.815712392178782</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>144.400706</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.841947622053879</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>96.195757</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.24748642347004</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>21.40538790839617</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>159.489707</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.911752092616207</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>142.014604</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.786127220252362</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>111.170106</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.418064482248291</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>69.999773</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9077714983155093</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-11.53078836497181</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>30.76552</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3687764454945408</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>24.971079</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.3140629390550012</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>39.759524</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.5071648381400166</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>69.615387</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9027867013626462</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>222.532266599061</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>43.51166</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5215603478298755</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>89.48096</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.12540804852938</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>54.850425</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.6996614677035902</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>67.574123</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8763151686658542</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>115.9846263615638</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>97.469731</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.16833848221935</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>101.091649</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.271436464513871</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>102.377707</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.305910332321912</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>53.514826</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.6939913045162842</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>12.45114195803512</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1167.321214</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>13.9923059336976</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>980.446898</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.33114653849115</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1055.14474</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.45922328638517</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>637.507562</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>8.267329591828924</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>7.585668329230022</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2284,459 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>458.678089</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>12.14544962797946</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>152.62696</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>4.973438273661137</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>568.198268</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>14.05041330962232</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1100.595274</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>42.24203632562977</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>969.9829109999999</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>25.6844154279002</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>911.075161</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>29.68791408738916</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>939.820502</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>23.23989218840197</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>424.091036</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.27707239099589</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-27.31582216849943</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>OTHER PLASTICS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>375.93752</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>9.954541805958209</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>447.545507</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>14.58353067976246</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>602.522741</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.89918927295379</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>265.204345</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.17882943880863</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-21.0217708885603</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>19.647553</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.5202523752438428</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.846152</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.1579146818935493</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>113.295296</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.801567383228984</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>187.836791</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.209379084351516</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>HYDROCARBONS, N.E.S., AND THEIR HALOGENATED, SULPHONATED, NITRATED OR NITROSATED DERIVATIVES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1269.300088</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>33.61010837732407</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>985.176994</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>32.10256542022476</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>267.852822</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.62346766472139</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>163.64178</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.28074840811166</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-27.73227233827846</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>183.825581</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.867562649955921</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>149.065936</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.857400235197776</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>139.406889</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.447255155411071</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>111.143628</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.265812585470254</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>90.59551419958825</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.103635</v>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>9.195026</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2273747087393855</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>75.372925</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.892894337304749</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>0.864619</v>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>62.519537</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.399567411749175</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.1616</v>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>52.186321</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.700521626211817</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>61.903356</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.530746899518337</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>52.265164</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.005993491348571</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>113.8554316449562</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>65.13966499999999</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.724849167671832</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>66.7983</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.176661461615292</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>81.079673</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.00493908696502</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>37.144387</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.425641724995496</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-13.77739493128064</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>431.712562</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.43142282416058</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>298.416982</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.724090945592092</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1260.708288</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>31.17480905321304</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>125.635461</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>4.822024801234284</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-73.27139938514806</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
